--- a/villa-properties.xlsx
+++ b/villa-properties.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,528 +458,440 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Al Yasmeen 1, Al Yasmeen, Ajman</t>
+          <t>Halwan, Sharjah</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>89,999 AED/year</t>
+          <t>100,000 AED/year</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3,014 sqft</t>
+          <t>12,000 sqft</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-yasmeen-al-yasmeen-1-13132285.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-halwan-13132606.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Al Yasmeen 1, Al Yasmeen, Ajman</t>
+          <t>Al Fisht, Al Heerah, Sharjah</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>90,000 AED/year</t>
+          <t>110,000 AED/year</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3,014 sqft</t>
+          <t>10,115 sqft</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-yasmeen-al-yasmeen-1-12948229.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-heerah-al-fisht-12934465.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Al Yasmeen 1, Al Yasmeen, Ajman</t>
+          <t>Amargo, Damac Hills 2, Dubai</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>90,000 AED/year</t>
+          <t>120,000 AED/year</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3,014 sqft</t>
+          <t>1,208 sqft</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-yasmeen-al-yasmeen-1-13047611.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-damac-hills-2-amargo-13137496.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Al Yasmeen 1, Al Yasmeen, Ajman</t>
+          <t>Mirdif Villas, Mirdif, Dubai</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>94,999 AED/year</t>
+          <t>145,000 AED/year</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,014 sqft</t>
+          <t>10,125 sqft</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-yasmeen-al-yasmeen-1-12956841.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-mirdif-mirdif-villas-12805233.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Al Hamidiya 2, Al Hamidiya, Ajman</t>
+          <t>Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>95,000 AED/year</t>
+          <t>160,000 AED/year</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10,000 sqft</t>
+          <t>8,500 sqft</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-hamidiya-al-hamidiya-2-13022799.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13144570.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Al Helio 2, Al Helio, Ajman</t>
+          <t>Al Rahmaniya, Sharjah</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>105,000 AED/year</t>
+          <t>160,000 AED/year</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3,200 sqft</t>
+          <t>20,000 sqft</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-helio-al-helio-2-13017350.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-rahmaniya-13132605.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Al Aamra Gardens, Al Amerah, Ajman</t>
+          <t>Sharqan, Al Heerah, Sharjah</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>110,000 AED/year</t>
+          <t>160,000 AED/year</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4,000 sqft</t>
+          <t>8,000 sqft</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-amerah-al-aamra-gardens-12271615.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-heerah-sharqan-13082488.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Al Yasmeen 1, Al Yasmeen, Ajman</t>
+          <t>Al Fisht, Al Heerah, Sharjah</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>112,000 AED/year</t>
+          <t>165,000 AED/year</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3,080 sqft</t>
+          <t>2,750 sqft</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-yasmeen-al-yasmeen-1-12981365.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-heerah-al-fisht-13127318.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Al Yasmeen 1, Al Yasmeen, Ajman</t>
+          <t>Abu Hail, Deira, Dubai</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>114,999 AED/year</t>
+          <t>180,000 AED/year</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3,014 sqft</t>
+          <t>3,916 sqft</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-yasmeen-al-yasmeen-1-13127670.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-deira-abu-hail-12923594.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Al Amira Village, Al Yasmeen, Ajman</t>
+          <t>Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>115,000 AED/year</t>
+          <t>180,000 AED/year</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3,014 sqft</t>
+          <t>6,000 sqft</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-yasmeen-al-amira-village-13063526.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13131146.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Amargo, Damac Hills 2, Dubai</t>
+          <t>Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>120,000 AED/year</t>
+          <t>185,000 AED/year</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1,208 sqft</t>
+          <t>9,000 sqft</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-damac-hills-2-amargo-13137496.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13135794.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ajman Hills, Al Alia, Ajman</t>
+          <t>Hoshi 1, Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>130,000 AED/year</t>
+          <t>185,000 AED/year</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3,500 sqft</t>
+          <t>9,200 sqft</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-alia-ajman-hills-12868945.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-1-13136019.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Al Mowaihat 1, Al Mowaihat, Ajman</t>
+          <t>Al Aweer 1, Al Aweer, Dubai</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>130,000 AED/year</t>
+          <t>189,999 AED/year</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5,000 sqft</t>
+          <t>12,056 sqft</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-mowaihat-al-mowaihat-1-11996485.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-al-aweer-al-aweer-1-13165462.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mirdif Villas, Mirdif, Dubai</t>
+          <t>Al Rashidiya, Dubai</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>145,000 AED/year</t>
+          <t>190,000 AED/year</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10,125 sqft</t>
+          <t>4,000 sqft</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-mirdif-mirdif-villas-12805233.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-al-rashidiya-13033334.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Contemporary Style, Al Reef Villas, Al Reef, Abu Dhabi</t>
+          <t>Amaranta B, Villanova, Dubai Land, Dubai</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>149,000 AED/year</t>
+          <t>199,999 AED/year</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3,750 sqft</t>
+          <t>2,475 sqft</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-abu-dhabi-al-reef-al-reef-villas-contemporary-style-13050635.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-villanova-amaranta-b-13164457.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Al Mowaihat 1, Al Mowaihat, Ajman</t>
+          <t>Wadi Al Safa 5, Dubai</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>150,000 AED/year</t>
+          <t>200,000 AED/year</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5,000 sqft</t>
+          <t>2,475 sqft</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-mowaihat-al-mowaihat-1-13049581.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-wadi-al-safa-5-13138917.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mediterranean Style, Al Reef Villas, Al Reef, Abu Dhabi</t>
+          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>155,000 AED/year</t>
+          <t>200,000 AED/year</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2,942 sqft</t>
+          <t>2,684 sqft</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-abu-dhabi-al-reef-al-reef-villas-mediterranean-style-13004171.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13074818.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Al Rawda 2 Villas, Al Rawda 2, Al Rawda, Ajman</t>
+          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160,000 AED/year</t>
+          <t>200,000 AED/year</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5,000 sqft</t>
+          <t>2,684 sqft</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-ajman-al-rawda-al-rawda-2-al-rawda-2-villas-13069325.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13095855.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hoshi, Al Badie, Sharjah</t>
+          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>160,000 AED/year</t>
+          <t>200,000 AED/year</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8,500 sqft</t>
+          <t>2,675 sqft</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13144570.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13052035.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mohamed Bin Zayed City Villas, Mohamed Bin Zayed City, Abu Dhabi</t>
+          <t>Al Aweer 1, Al Aweer, Dubai</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>164,999 AED/year</t>
+          <t>200,000 AED/year</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5,200 sqft</t>
+          <t>12,700 sqft</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-abu-dhabi-mohamed-bin-zayed-city-mohamed-bin-zayed-city-villas-13042786.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mohamed Bin Zayed Centre, Mohamed Bin Zayed City, Abu Dhabi</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>170,000 AED/year</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>7,000 sqft</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-abu-dhabi-mohamed-bin-zayed-city-mohamed-bin-zayed-centre-13135446.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Hoshi, Al Badie, Sharjah</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>185,000 AED/year</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>9,000 sqft</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13135794.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Wadi Al Safa 5, Dubai</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>200,000 AED/year</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2,475 sqft</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-wadi-al-safa-5-13138917.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>200,000 AED/year</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2,684 sqft</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13074818.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-al-aweer-al-aweer-1-13145382.html</t>
         </is>
       </c>
     </row>

--- a/villa-properties.xlsx
+++ b/villa-properties.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,22 +524,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mirdif Villas, Mirdif, Dubai</t>
+          <t>Al Hooshi Villas, Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>145,000 AED/year</t>
+          <t>124,999 AED/year</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10,125 sqft</t>
+          <t>7,000 sqft</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-mirdif-mirdif-villas-12805233.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-al-hooshi-villas-13138484.html</t>
         </is>
       </c>
     </row>
@@ -551,149 +551,149 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160,000 AED/year</t>
+          <t>125,000 AED/year</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8,500 sqft</t>
+          <t>6,500 sqft</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13144570.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13138358.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Al Rahmaniya, Sharjah</t>
+          <t>Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160,000 AED/year</t>
+          <t>125,000 AED/year</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20,000 sqft</t>
+          <t>5,500 sqft</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-rahmaniya-13132605.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13105392.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sharqan, Al Heerah, Sharjah</t>
+          <t>Hoshi 1, Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160,000 AED/year</t>
+          <t>125,000 AED/year</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8,000 sqft</t>
+          <t>5,000 sqft</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-heerah-sharqan-13082488.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-1-13103132.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Al Fisht, Al Heerah, Sharjah</t>
+          <t>Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>165,000 AED/year</t>
+          <t>129,999 AED/year</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2,750 sqft</t>
+          <t>9,687 sqft</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-heerah-al-fisht-13127318.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13138140.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Abu Hail, Deira, Dubai</t>
+          <t>Mirdif Villas, Mirdif, Dubai</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>180,000 AED/year</t>
+          <t>130,000 AED/year</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3,916 sqft</t>
+          <t>2,850 sqft</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-deira-abu-hail-12923594.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-mirdif-mirdif-villas-13172011.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hoshi, Al Badie, Sharjah</t>
+          <t>Mirdif Villas, Mirdif, Dubai</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>180,000 AED/year</t>
+          <t>130,000 AED/year</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6,000 sqft</t>
+          <t>3,000 sqft</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13131146.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-mirdif-mirdif-villas-13165428.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hoshi, Al Badie, Sharjah</t>
+          <t>Hoshi 1, Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>185,000 AED/year</t>
+          <t>130,000 AED/year</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9,000 sqft</t>
+          <t>5,000 sqft</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13135794.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-1-13089324.html</t>
         </is>
       </c>
     </row>
@@ -705,193 +705,1139 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>185,000 AED/year</t>
+          <t>130,000 AED/year</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9,200 sqft</t>
+          <t>6,000 sqft</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-1-13136019.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-1-13104625.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Al Aweer 1, Al Aweer, Dubai</t>
+          <t>Al Hooshi Villas, Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>189,999 AED/year</t>
+          <t>130,000 AED/year</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12,056 sqft</t>
+          <t>6,100 sqft</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-al-aweer-al-aweer-1-13165462.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-al-hooshi-villas-12772277.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Al Rashidiya, Dubai</t>
+          <t>Sharqan, Al Heerah, Sharjah</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>190,000 AED/year</t>
+          <t>135,000 AED/year</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,000 sqft</t>
+          <t>8,000 sqft</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-al-rashidiya-13033334.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-heerah-sharqan-12984946.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Amaranta B, Villanova, Dubai Land, Dubai</t>
+          <t>Hoshi 2, Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>199,999 AED/year</t>
+          <t>139,500 AED/year</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2,475 sqft</t>
+          <t>5,835 sqft</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-villanova-amaranta-b-13164457.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-2-13104703.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Wadi Al Safa 5, Dubai</t>
+          <t>Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>200,000 AED/year</t>
+          <t>139,999 AED/year</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2,475 sqft</t>
+          <t>6,000 sqft</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-wadi-al-safa-5-13138917.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13145308.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
+          <t>Hoshi, Al Badie, Sharjah</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>200,000 AED/year</t>
+          <t>140,000 AED/year</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2,684 sqft</t>
+          <t>6,000 sqft</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13074818.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-12751353.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
+          <t>Al Ramaqiya, Wasit, Sharjah</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>200,000 AED/year</t>
+          <t>140,000 AED/year</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2,684 sqft</t>
+          <t>5,000 sqft</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13095855.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-wasit-al-ramaqiya-12606400.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
+          <t>Amargo, Damac Hills 2, Dubai</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>200,000 AED/year</t>
+          <t>140,000 AED/year</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2,675 sqft</t>
+          <t>1,208 sqft</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13052035.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-damac-hills-2-amargo-13098026.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>140,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>9,287 sqft</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13138349.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Al Hooshi Villas, Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>140,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6,000 sqft</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-al-hooshi-villas-12780927.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hoshi 1, Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>140,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5,000 sqft</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-1-13102038.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mirdif Villas, Mirdif, Dubai</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>145,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10,125 sqft</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-mirdif-mirdif-villas-12805233.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Primrose, Damac Hills 2, Dubai</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>145,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1,881 sqft</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-akoya-primrose-11939057.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sharjah Garden City, Sharjah</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>150,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8,000 sqft</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-sharjah-garden-city-13130888.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Nasma Residence, Al Tai, Sharjah</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>150,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5,500 sqft</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-tai-nasma-residence-12882496.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Al Hooshi Villas, Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>150,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>6,000 sqft</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-al-hooshi-villas-12740569.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Al Tayy Suburb, Sharjah</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>150,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>8,000 sqft</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-tayy-suburb-12663338.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hoshi 1, Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>150,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3,500 sqft</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-1-13151634.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Al Hooshi Villas, Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>150,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>6,000 sqft</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-al-hooshi-villas-12860604.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sharjah Garden City, Sharjah</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>150,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7,000 sqft</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-sharjah-garden-city-12754209.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Hoshi 1, Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>155,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5,200 sqft</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-1-13169731.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hoshi 1, Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>155,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5,250 sqft</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-1-13129653.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hoshi 2, Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>155,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5,000 sqft</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-2-13100348.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Zinnia, The Roots DAMAC Hills 2, Damac Hills 2, Dubai</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159,900 AED/year</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1,888 sqft</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-damac-hills-2-the-roots-damac-hills-2-zinnia-12995294.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8,500 sqft</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13144570.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Al Rahmaniya, Sharjah</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20,000 sqft</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-rahmaniya-13132605.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sharqan, Al Heerah, Sharjah</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>8,000 sqft</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-heerah-sharqan-13082488.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sharqan, Al Heerah, Sharjah</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5,000 sqft</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-heerah-sharqan-12571728.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mirdif, Dubai</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1,552 sqft</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-mirdif-12252221.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Al Jurainah 1, Al Jurainah, Sharjah</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>15,000 sqft</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-jurainah-al-jurainah-1-13130890.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Al Fisht, Al Heerah, Sharjah</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>165,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2,750 sqft</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-heerah-al-fisht-13127318.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Al Ramaqiya, Wasit, Sharjah</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>169,999 AED/year</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>6,000 sqft</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-wasit-al-ramaqiya-12799557.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mirdif Villas, Mirdif, Dubai</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>170,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3,000 sqft</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-mirdif-mirdif-villas-13025186.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nasma Residence, Al Tai, Sharjah</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>174,999 AED/year</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5,300 sqft</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-tai-nasma-residence-12860497.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Abu Hail, Deira, Dubai</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>180,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3,916 sqft</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-deira-abu-hail-12923594.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>180,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>6,000 sqft</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13131146.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Al Nouf, Sharjah</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>180,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>10,000 sqft</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-nouf-13138056.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mirdif Villas, Mirdif, Dubai</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>180,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3,500 sqft</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-mirdif-mirdif-villas-12911675.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>Al Aweer 1, Al Aweer, Dubai</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>180,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>13,000 sqft</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-al-aweer-al-aweer-1-10169882.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>185,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>9,000 sqft</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-13135794.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hoshi 1, Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>185,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>9,200 sqft</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-1-13136019.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hoshi 2, Hoshi, Al Badie, Sharjah</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>185,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5,000 sqft</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-sharjah-al-badie-hoshi-hoshi-2-13153812.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Al Aweer 1, Al Aweer, Dubai</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>189,999 AED/year</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>12,056 sqft</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-al-aweer-al-aweer-1-13165462.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Al Rashidiya, Dubai</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>190,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4,000 sqft</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-al-rashidiya-13033334.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Amaranta B, Villanova, Dubai Land, Dubai</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>199,999 AED/year</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2,475 sqft</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-villanova-amaranta-b-13164457.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Wadi Al Safa 5, Dubai</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>200,000 AED/year</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2,475 sqft</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-wadi-al-safa-5-13138917.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>200,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2,684 sqft</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13074818.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>200,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2,684 sqft</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13095855.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>200,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2,675 sqft</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13052035.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Al Aweer 1, Al Aweer, Dubai</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>200,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>12,700 sqft</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-al-aweer-al-aweer-1-13145382.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>200,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2,684 sqft</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13172681.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>180 Degrees Villas, Liwan, Dubai Land, Dubai</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>200,000 AED/year</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2,684 sqft</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/rent/villa-for-rent-dubai-dubai-land-liwan-180-degrees-villas-13168329.html</t>
         </is>
       </c>
     </row>
